--- a/curebound/data/processed/project_titles.xlsx
+++ b/curebound/data/processed/project_titles.xlsx
@@ -597,18 +597,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>New Therapies for Myeloid Leukemia</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>People of all backgrounds would benefit equally from this research</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
